--- a/drone.xlsx
+++ b/drone.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nghich\Phaohoa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nghich\Phaohoa\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F307D179-43A6-4CC0-9EA6-79695453FCD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="5688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="5688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Function</t>
   </si>
@@ -159,12 +160,36 @@
   </si>
   <si>
     <t>droneCreateFormation</t>
+  </si>
+  <si>
+    <t>Class FormationV2</t>
+  </si>
+  <si>
+    <t>class nâng cấp</t>
+  </si>
+  <si>
+    <t>addDrones(n,size, life=1000000)</t>
+  </si>
+  <si>
+    <t>setColor(color,pistilColor=COLOR.White){</t>
+  </si>
+  <si>
+    <t>setColorV2(color, timeGap=0.7,pistilColor=COLOR.White)</t>
+  </si>
+  <si>
+    <t>setRandomColor(interval = 64 - tần suất đổi màu)</t>
+  </si>
+  <si>
+    <t>setRandomColorV2(duration = 2000000,colorStrobe = null,interval = 64, troll = 0.9)</t>
+  </si>
+  <si>
+    <t>nhấp nháy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -531,16 +556,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" style="3" customWidth="1"/>
     <col min="2" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
@@ -655,77 +680,113 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="33" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
     </row>
